--- a/BulkSiteUpload/BulkSiteTemplate.xlsx
+++ b/BulkSiteUpload/BulkSiteTemplate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="23">
   <si>
     <t>PARENT_SITE_ID</t>
   </si>

--- a/BulkSiteUpload/BulkSiteTemplate.xlsx
+++ b/BulkSiteUpload/BulkSiteTemplate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="51">
   <si>
     <t>PARENT_SITE_ID</t>
   </si>
@@ -89,6 +89,90 @@
   </si>
   <si>
     <t>Home</t>
+  </si>
+  <si>
+    <t>1180001</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>-81</t>
+  </si>
+  <si>
+    <t>Farm</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Punjab</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>TestRegion1</t>
+  </si>
+  <si>
+    <t>TestRegion2</t>
+  </si>
+  <si>
+    <t>40.71</t>
+  </si>
+  <si>
+    <t>-74.00</t>
+  </si>
+  <si>
+    <t>1189001</t>
+  </si>
+  <si>
+    <t>Lahore</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>1030001</t>
+  </si>
+  <si>
+    <t>1193001</t>
+  </si>
+  <si>
+    <t>1194001</t>
+  </si>
+  <si>
+    <t>1208001</t>
+  </si>
+  <si>
+    <t>1215001</t>
+  </si>
+  <si>
+    <t>1003001</t>
+  </si>
+  <si>
+    <t>1216001</t>
+  </si>
+  <si>
+    <t>1217001</t>
+  </si>
+  <si>
+    <t>1218001</t>
+  </si>
+  <si>
+    <t>1230001</t>
+  </si>
+  <si>
+    <t>1235001</t>
+  </si>
+  <si>
+    <t>1260001</t>
+  </si>
+  <si>
+    <t>1031001</t>
   </si>
 </sst>
 </file>
@@ -518,33 +602,60 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/BulkSiteUpload/BulkSiteTemplate.xlsx
+++ b/BulkSiteUpload/BulkSiteTemplate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2722" uniqueCount="54">
   <si>
     <t>PARENT_SITE_ID</t>
   </si>
@@ -173,6 +173,15 @@
   </si>
   <si>
     <t>1031001</t>
+  </si>
+  <si>
+    <t>1264001</t>
+  </si>
+  <si>
+    <t>1032001</t>
+  </si>
+  <si>
+    <t>1266001</t>
   </si>
 </sst>
 </file>
@@ -602,7 +611,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -631,7 +640,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>

--- a/BulkSiteUpload/BulkSiteTemplate.xlsx
+++ b/BulkSiteUpload/BulkSiteTemplate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2722" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3583" uniqueCount="61">
   <si>
     <t>PARENT_SITE_ID</t>
   </si>
@@ -182,6 +182,27 @@
   </si>
   <si>
     <t>1266001</t>
+  </si>
+  <si>
+    <t>1002001</t>
+  </si>
+  <si>
+    <t>1280001</t>
+  </si>
+  <si>
+    <t>1034001</t>
+  </si>
+  <si>
+    <t>1285001</t>
+  </si>
+  <si>
+    <t>1286001</t>
+  </si>
+  <si>
+    <t>1287001</t>
+  </si>
+  <si>
+    <t>1289001</t>
   </si>
 </sst>
 </file>
@@ -611,7 +632,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -640,7 +661,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>

--- a/BulkSiteUpload/BulkSiteTemplate.xlsx
+++ b/BulkSiteUpload/BulkSiteTemplate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3583" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4297" uniqueCount="65">
   <si>
     <t>PARENT_SITE_ID</t>
   </si>
@@ -203,6 +203,18 @@
   </si>
   <si>
     <t>1289001</t>
+  </si>
+  <si>
+    <t>1292001</t>
+  </si>
+  <si>
+    <t>1005001</t>
+  </si>
+  <si>
+    <t>1035001</t>
+  </si>
+  <si>
+    <t>1007001</t>
   </si>
 </sst>
 </file>
@@ -632,7 +644,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -661,7 +673,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>

--- a/BulkSiteUpload/BulkSiteTemplate.xlsx
+++ b/BulkSiteUpload/BulkSiteTemplate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4297" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4420" uniqueCount="66">
   <si>
     <t>PARENT_SITE_ID</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>1007001</t>
+  </si>
+  <si>
+    <t>1036001</t>
   </si>
 </sst>
 </file>
@@ -644,7 +647,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -673,7 +676,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>

--- a/BulkSiteUpload/BulkSiteTemplate.xlsx
+++ b/BulkSiteUpload/BulkSiteTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse-WorkSpace\eclipse-workspace\IEQACode\BulkSiteUpload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CE6ACD-3003-482C-9EB3-F56DE6C555CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBA8840-87A5-4A27-B2AA-E0CC853F17A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4420" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="28">
   <si>
     <t>PARENT_SITE_ID</t>
   </si>
@@ -55,169 +55,55 @@
     <t>Region</t>
   </si>
   <si>
-    <t>1084001</t>
-  </si>
-  <si>
-    <t>Sub-Region</t>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>TestRegion1</t>
+  </si>
+  <si>
+    <t>TestRegion2</t>
+  </si>
+  <si>
+    <t>40.71</t>
+  </si>
+  <si>
+    <t>-74.00</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>TestSite1</t>
+  </si>
+  <si>
+    <t>1037001</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Farm</t>
   </si>
   <si>
     <t>TestRegion</t>
   </si>
   <si>
-    <t>TestSubRegion</t>
-  </si>
-  <si>
-    <t>Sub Region</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>Complex</t>
-  </si>
-  <si>
     <t>Pakistan</t>
   </si>
   <si>
-    <t>TestSite1</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>1180001</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>-81</t>
-  </si>
-  <si>
-    <t>Farm</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
     <t>Punjab</t>
   </si>
   <si>
-    <t>New York</t>
+    <t>Lahore</t>
   </si>
   <si>
     <t>Latitude</t>
   </si>
   <si>
-    <t>TestRegion1</t>
-  </si>
-  <si>
-    <t>TestRegion2</t>
-  </si>
-  <si>
-    <t>40.71</t>
-  </si>
-  <si>
-    <t>-74.00</t>
-  </si>
-  <si>
-    <t>1189001</t>
-  </si>
-  <si>
-    <t>Lahore</t>
-  </si>
-  <si>
     <t>Longitude</t>
-  </si>
-  <si>
-    <t>1030001</t>
-  </si>
-  <si>
-    <t>1193001</t>
-  </si>
-  <si>
-    <t>1194001</t>
-  </si>
-  <si>
-    <t>1208001</t>
-  </si>
-  <si>
-    <t>1215001</t>
-  </si>
-  <si>
-    <t>1003001</t>
-  </si>
-  <si>
-    <t>1216001</t>
-  </si>
-  <si>
-    <t>1217001</t>
-  </si>
-  <si>
-    <t>1218001</t>
-  </si>
-  <si>
-    <t>1230001</t>
-  </si>
-  <si>
-    <t>1235001</t>
-  </si>
-  <si>
-    <t>1260001</t>
-  </si>
-  <si>
-    <t>1031001</t>
-  </si>
-  <si>
-    <t>1264001</t>
-  </si>
-  <si>
-    <t>1032001</t>
-  </si>
-  <si>
-    <t>1266001</t>
-  </si>
-  <si>
-    <t>1002001</t>
-  </si>
-  <si>
-    <t>1280001</t>
-  </si>
-  <si>
-    <t>1034001</t>
-  </si>
-  <si>
-    <t>1285001</t>
-  </si>
-  <si>
-    <t>1286001</t>
-  </si>
-  <si>
-    <t>1287001</t>
-  </si>
-  <si>
-    <t>1289001</t>
-  </si>
-  <si>
-    <t>1292001</t>
-  </si>
-  <si>
-    <t>1005001</t>
-  </si>
-  <si>
-    <t>1035001</t>
-  </si>
-  <si>
-    <t>1007001</t>
-  </si>
-  <si>
-    <t>1036001</t>
   </si>
 </sst>
 </file>
@@ -598,13 +484,14 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="A2:E8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="14.796875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="9.796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.296875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="9.796875" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="14.796875" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="7.796875" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="5.796875" collapsed="true"/>
@@ -645,62 +532,62 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/BulkSiteUpload/BulkSiteTemplate.xlsx
+++ b/BulkSiteUpload/BulkSiteTemplate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="29">
   <si>
     <t>PARENT_SITE_ID</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>Longitude</t>
+  </si>
+  <si>
+    <t>1002001</t>
   </si>
 </sst>
 </file>
@@ -534,7 +537,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -563,7 +566,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>

--- a/BulkSiteUpload/BulkSiteTemplate.xlsx
+++ b/BulkSiteUpload/BulkSiteTemplate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="31">
   <si>
     <t>PARENT_SITE_ID</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>1002001</t>
+  </si>
+  <si>
+    <t>1338001</t>
+  </si>
+  <si>
+    <t>1339001</t>
   </si>
 </sst>
 </file>
@@ -537,7 +543,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -566,7 +572,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>

--- a/BulkSiteUpload/BulkSiteTemplate.xlsx
+++ b/BulkSiteUpload/BulkSiteTemplate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="32">
   <si>
     <t>PARENT_SITE_ID</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>1339001</t>
+  </si>
+  <si>
+    <t>1038001</t>
   </si>
 </sst>
 </file>
@@ -543,7 +546,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -572,7 +575,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>

--- a/BulkSiteUpload/BulkSiteTemplate.xlsx
+++ b/BulkSiteUpload/BulkSiteTemplate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="34">
   <si>
     <t>PARENT_SITE_ID</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>1038001</t>
+  </si>
+  <si>
+    <t>1373001</t>
+  </si>
+  <si>
+    <t>1003001</t>
   </si>
 </sst>
 </file>
@@ -546,7 +552,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -575,7 +581,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>

--- a/BulkSiteUpload/BulkSiteTemplate.xlsx
+++ b/BulkSiteUpload/BulkSiteTemplate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="35">
   <si>
     <t>PARENT_SITE_ID</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>1003001</t>
+  </si>
+  <si>
+    <t>1042001</t>
   </si>
 </sst>
 </file>
@@ -552,7 +555,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -581,7 +584,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>

--- a/BulkSiteUpload/BulkSiteTemplate.xlsx
+++ b/BulkSiteUpload/BulkSiteTemplate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="36">
   <si>
     <t>PARENT_SITE_ID</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>1042001</t>
+  </si>
+  <si>
+    <t>1407001</t>
   </si>
 </sst>
 </file>
@@ -555,7 +558,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -584,7 +587,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>

--- a/BulkSiteUpload/BulkSiteTemplate.xlsx
+++ b/BulkSiteUpload/BulkSiteTemplate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="37">
   <si>
     <t>PARENT_SITE_ID</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>1407001</t>
+  </si>
+  <si>
+    <t>1410001</t>
   </si>
 </sst>
 </file>
@@ -558,7 +561,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -587,7 +590,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>

--- a/BulkSiteUpload/BulkSiteTemplate.xlsx
+++ b/BulkSiteUpload/BulkSiteTemplate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="40">
   <si>
     <t>PARENT_SITE_ID</t>
   </si>
@@ -131,6 +131,15 @@
   </si>
   <si>
     <t>1410001</t>
+  </si>
+  <si>
+    <t>1048001</t>
+  </si>
+  <si>
+    <t>1412001</t>
+  </si>
+  <si>
+    <t>1413001</t>
   </si>
 </sst>
 </file>
@@ -561,7 +570,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -590,7 +599,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>

--- a/BulkSiteUpload/BulkSiteTemplate.xlsx
+++ b/BulkSiteUpload/BulkSiteTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse-WorkSpace\eclipse-workspace\IEQACode\BulkSiteUpload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBA8840-87A5-4A27-B2AA-E0CC853F17A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E6E813-F74B-495A-8264-CE4C20D16199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5904" yWindow="4716" windowWidth="17280" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>PARENT_SITE_ID</t>
   </si>
@@ -71,82 +71,12 @@
   </si>
   <si>
     <t>-74.00</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>TestSite1</t>
-  </si>
-  <si>
-    <t>1037001</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>Farm</t>
-  </si>
-  <si>
-    <t>TestRegion</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Punjab</t>
-  </si>
-  <si>
-    <t>Lahore</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>1002001</t>
-  </si>
-  <si>
-    <t>1338001</t>
-  </si>
-  <si>
-    <t>1339001</t>
-  </si>
-  <si>
-    <t>1038001</t>
-  </si>
-  <si>
-    <t>1373001</t>
-  </si>
-  <si>
-    <t>1003001</t>
-  </si>
-  <si>
-    <t>1042001</t>
-  </si>
-  <si>
-    <t>1407001</t>
-  </si>
-  <si>
-    <t>1410001</t>
-  </si>
-  <si>
-    <t>1048001</t>
-  </si>
-  <si>
-    <t>1412001</t>
-  </si>
-  <si>
-    <t>1413001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -525,15 +455,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.796875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.296875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="9.796875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.796875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="7.796875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="5.796875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="4.796875" collapsed="true"/>
-    <col min="8" max="9" customWidth="true" width="8.796875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="9.796875" collapsed="true"/>
+    <col min="1" max="1" width="14.796875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.796875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.796875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.796875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="5.796875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="4.796875" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="8.796875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9.796875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -569,8 +499,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>39</v>
+      <c r="A2">
+        <v>1003001</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -598,8 +528,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>39</v>
+      <c r="A3">
+        <v>1003001</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>

--- a/BulkSiteUpload/BulkSiteTemplate.xlsx
+++ b/BulkSiteUpload/BulkSiteTemplate.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse-WorkSpace\eclipse-workspace\IEQACode\BulkSiteUpload\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="32">
   <si>
     <t>PARENT_SITE_ID</t>
   </si>
@@ -71,12 +71,58 @@
   </si>
   <si>
     <t>-74.00</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>TestSite1</t>
+  </si>
+  <si>
+    <t>1050001</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>TestRegion</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Lahore</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>1438001</t>
+  </si>
+  <si>
+    <t>Farm</t>
+  </si>
+  <si>
+    <t>Punjab</t>
+  </si>
+  <si>
+    <t>1439001</t>
+  </si>
+  <si>
+    <t>1440001</t>
+  </si>
+  <si>
+    <t>1441001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -455,15 +501,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.796875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.796875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.796875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.796875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="5.796875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="4.796875" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="8.796875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9.796875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.296875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="9.796875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.796875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="7.796875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="5.796875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="4.796875" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" width="8.796875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="9.796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -499,8 +545,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1003001</v>
+      <c r="A2" t="s">
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -528,8 +574,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1003001</v>
+      <c r="A3" t="s">
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>

--- a/BulkSiteUpload/BulkSiteTemplate.xlsx
+++ b/BulkSiteUpload/BulkSiteTemplate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="34">
   <si>
     <t>PARENT_SITE_ID</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>1441001</t>
+  </si>
+  <si>
+    <t>1003001</t>
+  </si>
+  <si>
+    <t>1019001</t>
   </si>
 </sst>
 </file>
@@ -546,7 +552,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -575,7 +581,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
